--- a/python/experimental/abhi experimental through plane data.xlsx
+++ b/python/experimental/abhi experimental through plane data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Indian Institute of Technology Bombay\3rd Semester\Fitting Inhomogenous Project\Code\python\experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5FCB286C-080E-4B9E-A65E-2ED760AD67CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{29F9C0F8-C44F-454D-983E-0CAC2DA22CF6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5FCB286C-080E-4B9E-A65E-2ED760AD67CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{36B170F2-40F0-4FF5-820E-3A9C7FF105F1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" xr2:uid="{60D42BB8-EC91-4A84-BF16-6D11D287429D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" activeTab="1" xr2:uid="{60D42BB8-EC91-4A84-BF16-6D11D287429D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cal" sheetId="1" r:id="rId1"/>
+    <sheet name="UnCal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -373,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81C3E8B-E9E9-4D67-8642-EAAC2CC5D2E1}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1191,6 +1192,835 @@
       </c>
       <c r="C74">
         <v>-5730.5640000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11A2045-CA4E-4B37-B69B-4DA437839587}">
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>199998.14</v>
+      </c>
+      <c r="B1">
+        <v>40.589809000000002</v>
+      </c>
+      <c r="C1">
+        <v>-0.53678685000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>158857.26999999999</v>
+      </c>
+      <c r="B2">
+        <v>40.672466</v>
+      </c>
+      <c r="C2">
+        <v>-0.65376513999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>126187.65</v>
+      </c>
+      <c r="B3">
+        <v>40.770538000000002</v>
+      </c>
+      <c r="C3">
+        <v>-0.74592614000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100226.4</v>
+      </c>
+      <c r="B4">
+        <v>40.842590000000001</v>
+      </c>
+      <c r="C4">
+        <v>-0.82230663000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>79609.562999999995</v>
+      </c>
+      <c r="B5">
+        <v>40.914921</v>
+      </c>
+      <c r="C5">
+        <v>-0.92103153000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>63233.004000000001</v>
+      </c>
+      <c r="B6">
+        <v>41.029860999999997</v>
+      </c>
+      <c r="C6">
+        <v>-1.0001274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50224.538999999997</v>
+      </c>
+      <c r="B7">
+        <v>41.169410999999997</v>
+      </c>
+      <c r="C7">
+        <v>-1.0936459999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39897.565999999999</v>
+      </c>
+      <c r="B8">
+        <v>41.266891000000001</v>
+      </c>
+      <c r="C8">
+        <v>-1.2375560999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31686.09</v>
+      </c>
+      <c r="B9">
+        <v>41.404277999999998</v>
+      </c>
+      <c r="C9">
+        <v>-1.360528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25172.58</v>
+      </c>
+      <c r="B10">
+        <v>41.469009</v>
+      </c>
+      <c r="C10">
+        <v>-1.4982339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19995.175999999999</v>
+      </c>
+      <c r="B11">
+        <v>41.765647999999999</v>
+      </c>
+      <c r="C11">
+        <v>-1.7628657999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15884.798000000001</v>
+      </c>
+      <c r="B12">
+        <v>41.917431000000001</v>
+      </c>
+      <c r="C12">
+        <v>-1.9090704000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12618.766</v>
+      </c>
+      <c r="B13">
+        <v>42.137633999999998</v>
+      </c>
+      <c r="C13">
+        <v>-2.1307320999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10020.785</v>
+      </c>
+      <c r="B14">
+        <v>42.371921999999998</v>
+      </c>
+      <c r="C14">
+        <v>-2.3958848000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7959.7606999999998</v>
+      </c>
+      <c r="B15">
+        <v>42.656753999999999</v>
+      </c>
+      <c r="C15">
+        <v>-2.7140069000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6323.8188</v>
+      </c>
+      <c r="B16">
+        <v>42.998192000000003</v>
+      </c>
+      <c r="C16">
+        <v>-3.0763237000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5021.6068999999998</v>
+      </c>
+      <c r="B17">
+        <v>43.378200999999997</v>
+      </c>
+      <c r="C17">
+        <v>-3.4642889000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3986.1731</v>
+      </c>
+      <c r="B18">
+        <v>43.857922000000002</v>
+      </c>
+      <c r="C18">
+        <v>-3.901484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3166.9594999999999</v>
+      </c>
+      <c r="B19">
+        <v>44.402698999999998</v>
+      </c>
+      <c r="C19">
+        <v>-4.3873414999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2515.8047000000001</v>
+      </c>
+      <c r="B20">
+        <v>45.058559000000002</v>
+      </c>
+      <c r="C20">
+        <v>-4.8914514000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1998.0817999999999</v>
+      </c>
+      <c r="B21">
+        <v>45.782555000000002</v>
+      </c>
+      <c r="C21">
+        <v>-5.4086145999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1588.4749999999999</v>
+      </c>
+      <c r="B22">
+        <v>46.597084000000002</v>
+      </c>
+      <c r="C22">
+        <v>-5.8966713000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1260.4036000000001</v>
+      </c>
+      <c r="B23">
+        <v>47.486919</v>
+      </c>
+      <c r="C23">
+        <v>-6.4012465000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1001.6024</v>
+      </c>
+      <c r="B24">
+        <v>48.430038000000003</v>
+      </c>
+      <c r="C24">
+        <v>-6.8435978999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>795.25409000000002</v>
+      </c>
+      <c r="B25">
+        <v>49.421619</v>
+      </c>
+      <c r="C25">
+        <v>-7.3663607000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>631.81964000000005</v>
+      </c>
+      <c r="B26">
+        <v>50.442501</v>
+      </c>
+      <c r="C26">
+        <v>-7.8796163000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>502.08864999999997</v>
+      </c>
+      <c r="B27">
+        <v>51.493572</v>
+      </c>
+      <c r="C27">
+        <v>-8.4252529000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>398.59697999999997</v>
+      </c>
+      <c r="B28">
+        <v>52.610278999999998</v>
+      </c>
+      <c r="C28">
+        <v>-9.0843611000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>316.72298999999998</v>
+      </c>
+      <c r="B29">
+        <v>53.761840999999997</v>
+      </c>
+      <c r="C29">
+        <v>-9.8055047999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>251.69135</v>
+      </c>
+      <c r="B30">
+        <v>55.013415999999999</v>
+      </c>
+      <c r="C30">
+        <v>-10.644987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>199.80817999999999</v>
+      </c>
+      <c r="B31">
+        <v>56.350197000000001</v>
+      </c>
+      <c r="C31">
+        <v>-11.598993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>158.62943000000001</v>
+      </c>
+      <c r="B32">
+        <v>57.851128000000003</v>
+      </c>
+      <c r="C32">
+        <v>-12.606572999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>126.00809</v>
+      </c>
+      <c r="B33">
+        <v>59.370570999999998</v>
+      </c>
+      <c r="C33">
+        <v>-13.931803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100.16024</v>
+      </c>
+      <c r="B34">
+        <v>61.196258999999998</v>
+      </c>
+      <c r="C34">
+        <v>-15.393656999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>79.516548</v>
+      </c>
+      <c r="B35">
+        <v>63.052216000000001</v>
+      </c>
+      <c r="C35">
+        <v>-16.930579999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>63.160763000000003</v>
+      </c>
+      <c r="B36">
+        <v>65.144745</v>
+      </c>
+      <c r="C36">
+        <v>-18.723137000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50.208866</v>
+      </c>
+      <c r="B37">
+        <v>67.466804999999994</v>
+      </c>
+      <c r="C37">
+        <v>-20.722418000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39.859695000000002</v>
+      </c>
+      <c r="B38">
+        <v>70.054451</v>
+      </c>
+      <c r="C38">
+        <v>-23.029623000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31.672298000000001</v>
+      </c>
+      <c r="B39">
+        <v>72.901877999999996</v>
+      </c>
+      <c r="C39">
+        <v>-25.572966000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25.136747</v>
+      </c>
+      <c r="B40">
+        <v>76.057755</v>
+      </c>
+      <c r="C40">
+        <v>-28.401153999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19.980817999999999</v>
+      </c>
+      <c r="B41">
+        <v>79.535117999999997</v>
+      </c>
+      <c r="C41">
+        <v>-31.612034000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>15.857576999999999</v>
+      </c>
+      <c r="B42">
+        <v>83.532157999999995</v>
+      </c>
+      <c r="C42">
+        <v>-35.245449000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12.600809</v>
+      </c>
+      <c r="B43">
+        <v>87.838729999999998</v>
+      </c>
+      <c r="C43">
+        <v>-39.210293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10.016025000000001</v>
+      </c>
+      <c r="B44">
+        <v>92.666991999999993</v>
+      </c>
+      <c r="C44">
+        <v>-43.777203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7.9557003999999996</v>
+      </c>
+      <c r="B45">
+        <v>98.066460000000006</v>
+      </c>
+      <c r="C45">
+        <v>-48.890040999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6.3105811999999997</v>
+      </c>
+      <c r="B46">
+        <v>104.22498</v>
+      </c>
+      <c r="C46">
+        <v>-54.673088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5.0144419999999998</v>
+      </c>
+      <c r="B47">
+        <v>110.95</v>
+      </c>
+      <c r="C47">
+        <v>-60.982039999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.9859697999999999</v>
+      </c>
+      <c r="B48">
+        <v>118.48518</v>
+      </c>
+      <c r="C48">
+        <v>-67.996902000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.1655185000000001</v>
+      </c>
+      <c r="B49">
+        <v>126.86658</v>
+      </c>
+      <c r="C49">
+        <v>-75.827483999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.5136747000000002</v>
+      </c>
+      <c r="B50">
+        <v>136.10484</v>
+      </c>
+      <c r="C50">
+        <v>-84.220534999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.9970603</v>
+      </c>
+      <c r="B51">
+        <v>145.76549</v>
+      </c>
+      <c r="C51">
+        <v>-93.252724000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.5846856</v>
+      </c>
+      <c r="B52">
+        <v>155.60588000000001</v>
+      </c>
+      <c r="C52">
+        <v>-103.4453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.2596742000000001</v>
+      </c>
+      <c r="B53">
+        <v>165.15371999999999</v>
+      </c>
+      <c r="C53">
+        <v>-115.25836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.0000639</v>
+      </c>
+      <c r="B54">
+        <v>174.12255999999999</v>
+      </c>
+      <c r="C54">
+        <v>-129.63512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.79443752999999995</v>
+      </c>
+      <c r="B55">
+        <v>182.48815999999999</v>
+      </c>
+      <c r="C55">
+        <v>-147.89493999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.63126212000000004</v>
+      </c>
+      <c r="B56">
+        <v>190.56204</v>
+      </c>
+      <c r="C56">
+        <v>-171.1386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.50118678999999999</v>
+      </c>
+      <c r="B57">
+        <v>198.26877999999999</v>
+      </c>
+      <c r="C57">
+        <v>-201.58417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.39867833000000003</v>
+      </c>
+      <c r="B58">
+        <v>206.16743</v>
+      </c>
+      <c r="C58">
+        <v>-240.02017000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.3161931</v>
+      </c>
+      <c r="B59">
+        <v>215.05489</v>
+      </c>
+      <c r="C59">
+        <v>-289.49090999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.25117347000000001</v>
+      </c>
+      <c r="B60">
+        <v>225.23394999999999</v>
+      </c>
+      <c r="C60">
+        <v>-351.40850999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.19980818</v>
+      </c>
+      <c r="B61">
+        <v>237.32723999999999</v>
+      </c>
+      <c r="C61">
+        <v>-428.36383000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.15846856000000001</v>
+      </c>
+      <c r="B62">
+        <v>252.34970000000001</v>
+      </c>
+      <c r="C62">
+        <v>-525.58563000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.12590654000000001</v>
+      </c>
+      <c r="B63">
+        <v>270.75211000000002</v>
+      </c>
+      <c r="C63">
+        <v>-645.37108999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.10013975</v>
+      </c>
+      <c r="B64">
+        <v>293.82925</v>
+      </c>
+      <c r="C64">
+        <v>-792.76378999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7.9421177999999995E-2</v>
+      </c>
+      <c r="B65">
+        <v>323.24536000000001</v>
+      </c>
+      <c r="C65">
+        <v>-976.77086999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6.3101739000000004E-2</v>
+      </c>
+      <c r="B66">
+        <v>360.57535000000001</v>
+      </c>
+      <c r="C66">
+        <v>-1201.3175000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5.0154074999999999E-2</v>
+      </c>
+      <c r="B67">
+        <v>408.18173000000002</v>
+      </c>
+      <c r="C67">
+        <v>-1478.0001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3.9804459E-2</v>
+      </c>
+      <c r="B68">
+        <v>469.27596999999997</v>
+      </c>
+      <c r="C68">
+        <v>-1820.9295999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3.1592204999999998E-2</v>
+      </c>
+      <c r="B69">
+        <v>546.87554999999998</v>
+      </c>
+      <c r="C69">
+        <v>-2242.3119999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.5144994E-2</v>
+      </c>
+      <c r="B70">
+        <v>644.51427999999999</v>
+      </c>
+      <c r="C70">
+        <v>-2751.4677999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.9949391E-2</v>
+      </c>
+      <c r="B71">
+        <v>770.65941999999995</v>
+      </c>
+      <c r="C71">
+        <v>-3382.2957000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.5860691999999999E-2</v>
+      </c>
+      <c r="B72">
+        <v>929.54070999999999</v>
+      </c>
+      <c r="C72">
+        <v>-4144.5820000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.2576789E-2</v>
+      </c>
+      <c r="B73">
+        <v>1132.9309000000001</v>
+      </c>
+      <c r="C73">
+        <v>-5087.3837999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1.000917E-2</v>
+      </c>
+      <c r="B74">
+        <v>1386.1503</v>
+      </c>
+      <c r="C74">
+        <v>-6215.1313</v>
       </c>
     </row>
   </sheetData>
@@ -1207,15 +2037,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA77CB608DF77642B32363FEA1A8D6ED" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60da8da67832157b53ddd3885e82d365">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="789f3669-58e9-453a-aab3-9449a398dc0e" xmlns:ns4="8c01272d-a0a3-40dc-a393-2041f81f19c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be128519fc943fd0781e55ac20fffc24" ns3:_="" ns4:_="">
     <xsd:import namespace="789f3669-58e9-453a-aab3-9449a398dc0e"/>
@@ -1436,32 +2257,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B115BBB7-4BB0-4F1C-ACA4-89EF70F49FB4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="789f3669-58e9-453a-aab3-9449a398dc0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8c01272d-a0a3-40dc-a393-2041f81f19c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="789f3669-58e9-453a-aab3-9449a398dc0e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21F069C-4CB3-4092-B8DC-2DC5406F40A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28657E6-A2AC-4696-B96A-6D138CD3AF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1478,4 +2300,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21F069C-4CB3-4092-B8DC-2DC5406F40A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>